--- a/00_WBS/スケジュール.xlsx
+++ b/00_WBS/スケジュール.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -110,6 +110,9 @@
     <t>ログイン画面</t>
   </si>
   <si>
+    <t>金原 優太</t>
+  </si>
+  <si>
     <t>`</t>
   </si>
   <si>
@@ -119,28 +122,68 @@
     <t>社員情報一覧</t>
   </si>
   <si>
+    <r>
+      <t>陶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="SimSun"/>
+        <charset val="128"/>
+      </rPr>
+      <t>丽丽</t>
+    </r>
+  </si>
+  <si>
+    <t>武欣月</t>
+  </si>
+  <si>
     <t>勤怠情報・一覧/登録</t>
   </si>
   <si>
     <t>勤怠情報一覧</t>
   </si>
   <si>
+    <t>中山　裕司</t>
+  </si>
+  <si>
     <t>勤怠情報登録</t>
   </si>
   <si>
+    <t>孫静孺</t>
+  </si>
+  <si>
     <t>勤怠情報詳細</t>
   </si>
   <si>
+    <t>司徒健斌</t>
+  </si>
+  <si>
     <t>勤怠情報承認</t>
   </si>
   <si>
+    <t>张晓</t>
+  </si>
+  <si>
+    <t>白宝帥</t>
+  </si>
+  <si>
+    <t>趙小萱</t>
+  </si>
+  <si>
     <t>チーム1</t>
   </si>
   <si>
+    <t>陶　麗麗</t>
+  </si>
+  <si>
     <t>チーム2</t>
   </si>
   <si>
     <t>チーム3</t>
+  </si>
+  <si>
+    <t>張　暁</t>
   </si>
 </sst>
 </file>
@@ -151,16 +194,27 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="mm/dd"/>
+    <numFmt numFmtId="178" formatCode="mm/dd"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -546,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -564,15 +618,11 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -594,6 +644,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -601,6 +660,32 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -710,10 +795,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,217 +807,232 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1270,2440 +1370,2461 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.44166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.2166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="11" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="6.55833333333333" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="25" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="32" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="46" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="60" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="75" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="89" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="6.66666666666667" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="104" width="6.55833333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.66666666666667" style="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.44166666666667" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.2166666666667" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.66666666666667" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="11" width="6.55833333333333" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.55833333333333" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="18" width="6.55833333333333" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2" style="7" customWidth="1"/>
+    <col min="20" max="20" width="6.66666666666667" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="25" width="6.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="32" width="6.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="1.66666666666667" style="7" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="6.66666666666667" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="46" width="6.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="1.66666666666667" style="7" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="6.66666666666667" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="60" width="6.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="1.66666666666667" style="7" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="6.66666666666667" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="75" width="6.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.66666666666667" style="7" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="6.66666666666667" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="89" width="6.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.66666666666667" style="7" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="6.66666666666667" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="104" width="6.55833333333333" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="105" max="105" width="1.66666666666667" style="7" customWidth="1" collapsed="1"/>
+    <col min="106" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="3" ht="24" spans="2:2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:104">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="T4" s="5" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="T4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5" t="s">
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AH4" s="5" t="s">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AH4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5" t="s">
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AV4" s="5" t="s">
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AV4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5" t="s">
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BJ4" s="5" t="s">
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BJ4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5" t="s">
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BY4" s="5" t="s">
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="11"/>
+      <c r="BS4" s="11"/>
+      <c r="BT4" s="11"/>
+      <c r="BU4" s="11"/>
+      <c r="BV4" s="11"/>
+      <c r="BW4" s="11"/>
+      <c r="BY4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5" t="s">
+      <c r="BZ4" s="11"/>
+      <c r="CA4" s="11"/>
+      <c r="CB4" s="11"/>
+      <c r="CC4" s="11"/>
+      <c r="CD4" s="11"/>
+      <c r="CE4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5"/>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CM4" s="5" t="s">
+      <c r="CF4" s="11"/>
+      <c r="CG4" s="11"/>
+      <c r="CH4" s="11"/>
+      <c r="CI4" s="11"/>
+      <c r="CJ4" s="11"/>
+      <c r="CK4" s="11"/>
+      <c r="CM4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5" t="s">
+      <c r="CN4" s="11"/>
+      <c r="CO4" s="11"/>
+      <c r="CP4" s="11"/>
+      <c r="CQ4" s="11"/>
+      <c r="CR4" s="11"/>
+      <c r="CS4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
+      <c r="CT4" s="11"/>
+      <c r="CU4" s="11"/>
+      <c r="CV4" s="11"/>
+      <c r="CW4" s="11"/>
+      <c r="CX4" s="11"/>
+      <c r="CY4" s="11"/>
+      <c r="CZ4" s="11"/>
     </row>
     <row r="5" ht="14.25" spans="2:104">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="14" t="s">
+      <c r="X5" s="11"/>
+      <c r="Y5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5" t="s">
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="14" t="s">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AI5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5" t="s">
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="14" t="s">
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AN5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AO5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5" t="s">
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="14" t="s">
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="14" t="s">
+      <c r="AT5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AV5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AW5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5" t="s">
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="14" t="s">
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="4" t="s">
+      <c r="BB5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="5" t="s">
+      <c r="BC5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5" t="s">
+      <c r="BD5" s="11"/>
+      <c r="BE5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="14" t="s">
+      <c r="BF5" s="11"/>
+      <c r="BG5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="14" t="s">
+      <c r="BH5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BJ5" s="4" t="s">
+      <c r="BJ5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="5" t="s">
+      <c r="BK5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5" t="s">
+      <c r="BL5" s="11"/>
+      <c r="BM5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="14" t="s">
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BP5" s="4" t="s">
+      <c r="BP5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="5" t="s">
+      <c r="BQ5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5" t="s">
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="14" t="s">
+      <c r="BT5" s="11"/>
+      <c r="BU5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="14" t="s">
+      <c r="BV5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="14" t="s">
+      <c r="BW5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BY5" s="4" t="s">
+      <c r="BY5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="5" t="s">
+      <c r="BZ5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5" t="s">
+      <c r="CA5" s="11"/>
+      <c r="CB5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="14" t="s">
+      <c r="CC5" s="11"/>
+      <c r="CD5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="CE5" s="4" t="s">
+      <c r="CE5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CF5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="5" t="s">
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="5"/>
-      <c r="CJ5" s="14" t="s">
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="14" t="s">
+      <c r="CK5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="CM5" s="4" t="s">
+      <c r="CM5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="5" t="s">
+      <c r="CN5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="CO5" s="5"/>
-      <c r="CP5" s="5" t="s">
+      <c r="CO5" s="11"/>
+      <c r="CP5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="14" t="s">
+      <c r="CQ5" s="11"/>
+      <c r="CR5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="CS5" s="4" t="s">
+      <c r="CS5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="CT5" s="5" t="s">
+      <c r="CT5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="CU5" s="5"/>
-      <c r="CV5" s="5" t="s">
+      <c r="CU5" s="11"/>
+      <c r="CV5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="CW5" s="5"/>
-      <c r="CX5" s="14" t="s">
+      <c r="CW5" s="11"/>
+      <c r="CX5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="14" t="s">
+      <c r="CY5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="14" t="s">
+      <c r="CZ5" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:104">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="5" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="5" t="s">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="5" t="s">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AJ6" s="5" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AL6" s="5" t="s">
+      <c r="AL6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="5" t="s">
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AR6" s="5" t="s">
+      <c r="AR6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="5" t="s">
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AX6" s="5" t="s">
+      <c r="AX6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AY6" s="5" t="s">
+      <c r="AY6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AZ6" s="5" t="s">
+      <c r="AZ6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="5" t="s">
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BD6" s="5" t="s">
+      <c r="BD6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BE6" s="5" t="s">
+      <c r="BE6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BF6" s="5" t="s">
+      <c r="BF6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="5" t="s">
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BL6" s="5" t="s">
+      <c r="BL6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BM6" s="5" t="s">
+      <c r="BM6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BN6" s="5" t="s">
+      <c r="BN6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="5" t="s">
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BR6" s="5" t="s">
+      <c r="BR6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BS6" s="5" t="s">
+      <c r="BS6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BT6" s="5" t="s">
+      <c r="BT6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BU6" s="4"/>
-      <c r="BV6" s="4"/>
-      <c r="BW6" s="4"/>
-      <c r="BY6" s="4"/>
-      <c r="BZ6" s="5" t="s">
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CA6" s="5" t="s">
+      <c r="CA6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CB6" s="5" t="s">
+      <c r="CB6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CC6" s="5" t="s">
+      <c r="CC6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CD6" s="4"/>
-      <c r="CE6" s="4"/>
-      <c r="CF6" s="5" t="s">
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CG6" s="5" t="s">
+      <c r="CG6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CH6" s="5" t="s">
+      <c r="CH6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CI6" s="5" t="s">
+      <c r="CI6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CJ6" s="4"/>
-      <c r="CK6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="5" t="s">
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CO6" s="5" t="s">
+      <c r="CO6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CP6" s="5" t="s">
+      <c r="CP6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CQ6" s="5" t="s">
+      <c r="CQ6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CR6" s="4"/>
-      <c r="CS6" s="4"/>
-      <c r="CT6" s="5" t="s">
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CU6" s="5" t="s">
+      <c r="CU6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CV6" s="5" t="s">
+      <c r="CV6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="CW6" s="5" t="s">
+      <c r="CW6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CX6" s="4"/>
-      <c r="CY6" s="4"/>
-      <c r="CZ6" s="4"/>
+      <c r="CX6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="10"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="2:106">
-      <c r="B7" s="7">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="str">
+      <c r="E7" s="16" t="str">
         <f>定数!D5</f>
         <v>チーム1</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
+      <c r="F7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="17">
         <v>44810</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="17">
         <v>44810</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23" t="str">
         <f>F8</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="M7" s="17">
         <v>44811</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="17">
         <v>44811</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="T7" s="10">
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="T7" s="16" t="str">
         <f>F7</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="U7" s="17">
         <f>N7+1</f>
         <v>44812</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="17">
         <f>U7</f>
         <v>44812</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16">
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="23" t="str">
         <f>T8</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="AA7" s="17">
         <f>V7+1</f>
         <v>44813</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="17">
         <f>AA7</f>
         <v>44813</v>
       </c>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AH7" s="10">
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AH7" s="16" t="str">
         <f>T7</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="AI7" s="17">
         <f>AB7+3</f>
         <v>44816</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7" s="17">
         <f>AI7</f>
         <v>44816</v>
       </c>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="16">
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="23" t="str">
         <f>AH8</f>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="AO7" s="17">
         <f>AJ7+1</f>
         <v>44817</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="17">
         <f>AO7</f>
         <v>44817</v>
       </c>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AV7" s="10">
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AV7" s="16" t="str">
         <f>AH7</f>
-        <v>0</v>
-      </c>
-      <c r="AW7" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="AW7" s="17">
         <f>AP7+1</f>
         <v>44818</v>
       </c>
-      <c r="AX7" s="11">
+      <c r="AX7" s="17">
         <f>AW7</f>
         <v>44818</v>
       </c>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="16">
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="17"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="23" t="str">
         <f>AV8</f>
-        <v>0</v>
-      </c>
-      <c r="BC7" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="BC7" s="17">
         <f>AX7+1</f>
         <v>44819</v>
       </c>
-      <c r="BD7" s="11">
+      <c r="BD7" s="17">
         <f>BC7</f>
         <v>44819</v>
       </c>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BJ7" s="10">
+      <c r="BE7" s="17"/>
+      <c r="BF7" s="17"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="22"/>
+      <c r="BJ7" s="16" t="str">
         <f>AV7</f>
-        <v>0</v>
-      </c>
-      <c r="BK7" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="BK7" s="17">
         <f>BD7+1</f>
         <v>44820</v>
       </c>
-      <c r="BL7" s="11">
+      <c r="BL7" s="17">
         <f>BK7</f>
         <v>44820</v>
       </c>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="15"/>
-      <c r="BP7" s="16">
+      <c r="BM7" s="17"/>
+      <c r="BN7" s="17"/>
+      <c r="BO7" s="22"/>
+      <c r="BP7" s="23" t="str">
         <f>BJ8</f>
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="BQ7" s="17">
         <f>BL7+4</f>
         <v>44824</v>
       </c>
-      <c r="BR7" s="11">
+      <c r="BR7" s="17">
         <f>BQ7</f>
         <v>44824</v>
       </c>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="11"/>
-      <c r="BU7" s="15"/>
-      <c r="BV7" s="15"/>
-      <c r="BW7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="BY7" s="17" t="str">
+      <c r="BS7" s="17"/>
+      <c r="BT7" s="17"/>
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY7" s="24" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="18">
+      <c r="BZ7" s="25">
         <f>BQ7+1</f>
         <v>44825</v>
       </c>
-      <c r="CA7" s="18">
+      <c r="CA7" s="25">
         <f>BZ7</f>
         <v>44825</v>
       </c>
-      <c r="CB7" s="18"/>
-      <c r="CC7" s="18"/>
-      <c r="CD7" s="23"/>
-      <c r="CE7" s="7" t="str">
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="30"/>
+      <c r="CE7" s="13" t="str">
         <f>BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CF7" s="11">
+      <c r="CF7" s="17">
         <f>CA7</f>
         <v>44825</v>
       </c>
-      <c r="CG7" s="11">
+      <c r="CG7" s="17">
         <f>CF7</f>
         <v>44825</v>
       </c>
-      <c r="CH7" s="11"/>
-      <c r="CI7" s="11"/>
-      <c r="CJ7" s="24"/>
-      <c r="CK7" s="23"/>
-      <c r="CM7" s="17" t="str">
+      <c r="CH7" s="17"/>
+      <c r="CI7" s="17"/>
+      <c r="CJ7" s="31"/>
+      <c r="CK7" s="30"/>
+      <c r="CM7" s="24" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CN7" s="18">
+      <c r="CN7" s="25">
         <f>CF7</f>
         <v>44825</v>
       </c>
-      <c r="CO7" s="18">
+      <c r="CO7" s="25">
         <f>CN7</f>
         <v>44825</v>
       </c>
-      <c r="CP7" s="18"/>
-      <c r="CQ7" s="18"/>
-      <c r="CR7" s="23"/>
-      <c r="CS7" s="7" t="str">
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="30"/>
+      <c r="CS7" s="13" t="str">
         <f>CM7</f>
         <v>チーム1</v>
       </c>
-      <c r="CT7" s="11">
+      <c r="CT7" s="17">
         <f>CO7</f>
         <v>44825</v>
       </c>
-      <c r="CU7" s="11">
+      <c r="CU7" s="17">
         <f>CT7</f>
         <v>44825</v>
       </c>
-      <c r="CV7" s="11"/>
-      <c r="CW7" s="11"/>
-      <c r="CX7" s="24"/>
-      <c r="CY7" s="24"/>
-      <c r="CZ7" s="24"/>
-      <c r="DB7" s="27"/>
+      <c r="CV7" s="17"/>
+      <c r="CW7" s="17"/>
+      <c r="CX7" s="31"/>
+      <c r="CY7" s="31"/>
+      <c r="CZ7" s="31"/>
+      <c r="DB7" s="34"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:104">
-      <c r="B8" s="7">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="str">
         <f>定数!D5</f>
         <v>チーム1</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11">
+      <c r="F8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17">
         <v>44810</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="17">
         <v>44810</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23" t="str">
         <f>F9</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="M8" s="17">
         <v>44811</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="17">
         <v>44811</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="T8" s="10">
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="T8" s="16" t="str">
         <f t="shared" ref="T8:T15" si="0">F8</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="U8" s="17">
         <f t="shared" ref="U8:U15" si="1">N8+1</f>
         <v>44812</v>
       </c>
-      <c r="V8" s="11">
-        <f t="shared" ref="V8:V14" si="2">U8</f>
+      <c r="V8" s="17">
+        <f t="shared" ref="V8:V15" si="2">U8</f>
         <v>44812</v>
       </c>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="16">
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23" t="str">
         <f>T9</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="AA8" s="17">
         <f t="shared" ref="AA8:AA15" si="3">V8+1</f>
         <v>44813</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="17">
         <f t="shared" ref="AB8:AB15" si="4">AA8</f>
         <v>44813</v>
       </c>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AH8" s="10">
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AH8" s="16" t="str">
         <f t="shared" ref="AH8:AH15" si="5">T8</f>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="AI8" s="17">
         <f t="shared" ref="AI8:AI15" si="6">AB8+3</f>
         <v>44816</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AJ8" s="17">
         <f t="shared" ref="AJ8:AJ15" si="7">AI8</f>
         <v>44816</v>
       </c>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="16">
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="23" t="str">
         <f>AH9</f>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="AO8" s="17">
         <f t="shared" ref="AO8:AO15" si="8">AJ8+1</f>
         <v>44817</v>
       </c>
-      <c r="AP8" s="11">
+      <c r="AP8" s="17">
         <f t="shared" ref="AP8:AP15" si="9">AO8</f>
         <v>44817</v>
       </c>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AV8" s="10">
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="22"/>
+      <c r="AT8" s="22"/>
+      <c r="AV8" s="16" t="str">
         <f t="shared" ref="AV8:AV15" si="10">AH8</f>
-        <v>0</v>
-      </c>
-      <c r="AW8" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="AW8" s="17">
         <f t="shared" ref="AW8:AW15" si="11">AP8+1</f>
         <v>44818</v>
       </c>
-      <c r="AX8" s="11">
+      <c r="AX8" s="17">
         <f t="shared" ref="AX8:AX15" si="12">AW8</f>
         <v>44818</v>
       </c>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="16">
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="22"/>
+      <c r="BB8" s="23" t="str">
         <f>AV9</f>
-        <v>0</v>
-      </c>
-      <c r="BC8" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="BC8" s="17">
         <f t="shared" ref="BC8:BC15" si="13">AX8+1</f>
         <v>44819</v>
       </c>
-      <c r="BD8" s="11">
+      <c r="BD8" s="17">
         <f t="shared" ref="BD8:BD15" si="14">BC8</f>
         <v>44819</v>
       </c>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="15"/>
-      <c r="BH8" s="15"/>
-      <c r="BJ8" s="10">
+      <c r="BE8" s="17"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="22"/>
+      <c r="BH8" s="22"/>
+      <c r="BJ8" s="16" t="str">
         <f t="shared" ref="BJ8:BJ15" si="15">AV8</f>
-        <v>0</v>
-      </c>
-      <c r="BK8" s="11">
+        <v>陶丽丽</v>
+      </c>
+      <c r="BK8" s="17">
         <f t="shared" ref="BK8:BK15" si="16">BD8+1</f>
         <v>44820</v>
       </c>
-      <c r="BL8" s="11">
+      <c r="BL8" s="17">
         <f t="shared" ref="BL8:BL15" si="17">BK8</f>
         <v>44820</v>
       </c>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="11"/>
-      <c r="BO8" s="15"/>
-      <c r="BP8" s="16">
+      <c r="BM8" s="17"/>
+      <c r="BN8" s="17"/>
+      <c r="BO8" s="22"/>
+      <c r="BP8" s="23" t="str">
         <f>BJ9</f>
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="BQ8" s="17">
         <f t="shared" ref="BQ8:BQ15" si="18">BL8+4</f>
         <v>44824</v>
       </c>
-      <c r="BR8" s="11">
+      <c r="BR8" s="17">
         <f t="shared" ref="BR8:BR15" si="19">BQ8</f>
         <v>44824</v>
       </c>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="11"/>
-      <c r="BU8" s="15"/>
-      <c r="BV8" s="15"/>
-      <c r="BW8" s="15"/>
-      <c r="BY8" s="19"/>
-      <c r="BZ8" s="20"/>
-      <c r="CA8" s="20"/>
-      <c r="CB8" s="20"/>
-      <c r="CC8" s="20"/>
-      <c r="CD8" s="25"/>
-      <c r="CE8" s="7"/>
-      <c r="CF8" s="11"/>
-      <c r="CG8" s="11"/>
-      <c r="CH8" s="11"/>
-      <c r="CI8" s="11"/>
-      <c r="CJ8" s="24"/>
-      <c r="CK8" s="25"/>
-      <c r="CM8" s="19"/>
-      <c r="CN8" s="20"/>
-      <c r="CO8" s="20"/>
-      <c r="CP8" s="20"/>
-      <c r="CQ8" s="20"/>
-      <c r="CR8" s="25"/>
-      <c r="CS8" s="7"/>
-      <c r="CT8" s="11"/>
-      <c r="CU8" s="11"/>
-      <c r="CV8" s="11"/>
-      <c r="CW8" s="11"/>
-      <c r="CX8" s="24"/>
-      <c r="CY8" s="24"/>
-      <c r="CZ8" s="24"/>
+      <c r="BS8" s="17"/>
+      <c r="BT8" s="17"/>
+      <c r="BU8" s="22"/>
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="22"/>
+      <c r="BY8" s="26"/>
+      <c r="BZ8" s="27"/>
+      <c r="CA8" s="27"/>
+      <c r="CB8" s="27"/>
+      <c r="CC8" s="27"/>
+      <c r="CD8" s="32"/>
+      <c r="CE8" s="13"/>
+      <c r="CF8" s="17"/>
+      <c r="CG8" s="17"/>
+      <c r="CH8" s="17"/>
+      <c r="CI8" s="17"/>
+      <c r="CJ8" s="31"/>
+      <c r="CK8" s="32"/>
+      <c r="CM8" s="26"/>
+      <c r="CN8" s="27"/>
+      <c r="CO8" s="27"/>
+      <c r="CP8" s="27"/>
+      <c r="CQ8" s="27"/>
+      <c r="CR8" s="32"/>
+      <c r="CS8" s="13"/>
+      <c r="CT8" s="17"/>
+      <c r="CU8" s="17"/>
+      <c r="CV8" s="17"/>
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="31"/>
+      <c r="CY8" s="31"/>
+      <c r="CZ8" s="31"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="2:104">
-      <c r="B9" s="7">
+      <c r="B9" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10" t="str">
+      <c r="C9" s="18"/>
+      <c r="D9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="16" t="str">
         <f>定数!D5</f>
         <v>チーム1</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11">
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="17">
         <v>44810</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="17">
         <v>44810</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23" t="str">
         <f>F7</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="M9" s="17">
         <v>44811</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="17">
         <v>44811</v>
       </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="T9" s="10">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="T9" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="U9" s="17">
         <f t="shared" si="1"/>
         <v>44812</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="17">
         <f t="shared" si="2"/>
         <v>44812</v>
       </c>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="16">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="23" t="str">
         <f>T7</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="AA9" s="17">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9" s="17">
         <f t="shared" si="4"/>
         <v>44813</v>
       </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AH9" s="10">
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AH9" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="AI9" s="17">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="AJ9" s="11">
+      <c r="AJ9" s="17">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="16">
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="23" t="str">
         <f>AH7</f>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="AO9" s="17">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="AP9" s="11">
+      <c r="AP9" s="17">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AV9" s="10">
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22"/>
+      <c r="AV9" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW9" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="AW9" s="17">
         <f t="shared" si="11"/>
         <v>44818</v>
       </c>
-      <c r="AX9" s="11">
+      <c r="AX9" s="17">
         <f t="shared" si="12"/>
         <v>44818</v>
       </c>
-      <c r="AY9" s="11"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="16">
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="23" t="str">
         <f>AV7</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="BC9" s="17">
         <f t="shared" si="13"/>
         <v>44819</v>
       </c>
-      <c r="BD9" s="11">
+      <c r="BD9" s="17">
         <f t="shared" si="14"/>
         <v>44819</v>
       </c>
-      <c r="BE9" s="11"/>
-      <c r="BF9" s="11"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BJ9" s="10">
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BJ9" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BK9" s="11">
+        <v>武欣月</v>
+      </c>
+      <c r="BK9" s="17">
         <f t="shared" si="16"/>
         <v>44820</v>
       </c>
-      <c r="BL9" s="11">
+      <c r="BL9" s="17">
         <f t="shared" si="17"/>
         <v>44820</v>
       </c>
-      <c r="BM9" s="11"/>
-      <c r="BN9" s="11"/>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="16">
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17"/>
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="23" t="str">
         <f>BJ7</f>
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="11">
+        <v>金原 優太</v>
+      </c>
+      <c r="BQ9" s="17">
         <f t="shared" si="18"/>
         <v>44824</v>
       </c>
-      <c r="BR9" s="11">
+      <c r="BR9" s="17">
         <f t="shared" si="19"/>
         <v>44824</v>
       </c>
-      <c r="BS9" s="11"/>
-      <c r="BT9" s="11"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15"/>
-      <c r="BW9" s="15"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="22"/>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="26"/>
-      <c r="CE9" s="7"/>
-      <c r="CF9" s="11"/>
-      <c r="CG9" s="11"/>
-      <c r="CH9" s="11"/>
-      <c r="CI9" s="11"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="26"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22"/>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="26"/>
-      <c r="CS9" s="7"/>
-      <c r="CT9" s="11"/>
-      <c r="CU9" s="11"/>
-      <c r="CV9" s="11"/>
-      <c r="CW9" s="11"/>
-      <c r="CX9" s="24"/>
-      <c r="CY9" s="24"/>
-      <c r="CZ9" s="24"/>
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22"/>
+      <c r="BW9" s="22"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="29"/>
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="33"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="31"/>
+      <c r="CK9" s="33"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="29"/>
+      <c r="CP9" s="29"/>
+      <c r="CQ9" s="29"/>
+      <c r="CR9" s="33"/>
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="17"/>
+      <c r="CU9" s="17"/>
+      <c r="CV9" s="17"/>
+      <c r="CW9" s="17"/>
+      <c r="CX9" s="31"/>
+      <c r="CY9" s="31"/>
+      <c r="CZ9" s="31"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="2:104">
-      <c r="B10" s="7">
+      <c r="B10" s="13">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="10" t="str">
+      <c r="C10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="16" t="str">
         <f>定数!D8</f>
         <v>チーム2</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11">
+      <c r="F10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="17">
         <v>44810</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="17">
         <v>44810</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23" t="str">
         <f>F11</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="M10" s="17">
         <v>44811</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="17">
         <v>44811</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="T10" s="10">
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="T10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="U10" s="17">
         <f t="shared" si="1"/>
         <v>44812</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="17">
         <f t="shared" si="2"/>
         <v>44812</v>
       </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="16">
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="23" t="str">
         <f>T11</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="AA10" s="17">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10" s="17">
         <f t="shared" si="4"/>
         <v>44813</v>
       </c>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AH10" s="10">
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AH10" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="AI10" s="17">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="AJ10" s="11">
+      <c r="AJ10" s="17">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="16">
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="23" t="str">
         <f>AH11</f>
-        <v>0</v>
-      </c>
-      <c r="AO10" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="AO10" s="17">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="AP10" s="11">
+      <c r="AP10" s="17">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AV10" s="10">
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="22"/>
+      <c r="AT10" s="22"/>
+      <c r="AV10" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW10" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="AW10" s="17">
         <f t="shared" si="11"/>
         <v>44818</v>
       </c>
-      <c r="AX10" s="11">
+      <c r="AX10" s="17">
         <f t="shared" si="12"/>
         <v>44818</v>
       </c>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="16">
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="23" t="str">
         <f>AV11</f>
-        <v>0</v>
-      </c>
-      <c r="BC10" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="BC10" s="17">
         <f t="shared" si="13"/>
         <v>44819</v>
       </c>
-      <c r="BD10" s="11">
+      <c r="BD10" s="17">
         <f t="shared" si="14"/>
         <v>44819</v>
       </c>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BJ10" s="10">
+      <c r="BE10" s="17"/>
+      <c r="BF10" s="17"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BJ10" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BK10" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="BK10" s="17">
         <f t="shared" si="16"/>
         <v>44820</v>
       </c>
-      <c r="BL10" s="11">
+      <c r="BL10" s="17">
         <f t="shared" si="17"/>
         <v>44820</v>
       </c>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="16">
+      <c r="BM10" s="17"/>
+      <c r="BN10" s="17"/>
+      <c r="BO10" s="22"/>
+      <c r="BP10" s="23" t="str">
         <f>BJ11</f>
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="BQ10" s="17">
         <f t="shared" si="18"/>
         <v>44824</v>
       </c>
-      <c r="BR10" s="11">
+      <c r="BR10" s="17">
         <f t="shared" si="19"/>
         <v>44824</v>
       </c>
-      <c r="BS10" s="11"/>
-      <c r="BT10" s="11"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="15"/>
-      <c r="BW10" s="15"/>
-      <c r="BY10" s="17" t="str">
+      <c r="BS10" s="17"/>
+      <c r="BT10" s="17"/>
+      <c r="BU10" s="22"/>
+      <c r="BV10" s="22"/>
+      <c r="BW10" s="22"/>
+      <c r="BY10" s="24" t="str">
         <f>E10</f>
         <v>チーム2</v>
       </c>
-      <c r="BZ10" s="18">
+      <c r="BZ10" s="25">
         <f t="shared" ref="BZ10" si="20">BQ10+1</f>
         <v>44825</v>
       </c>
-      <c r="CA10" s="18">
+      <c r="CA10" s="25">
         <f t="shared" ref="CA10" si="21">BZ10</f>
         <v>44825</v>
       </c>
-      <c r="CB10" s="18"/>
-      <c r="CC10" s="18"/>
-      <c r="CD10" s="23"/>
-      <c r="CE10" s="7" t="str">
+      <c r="CB10" s="25"/>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="30"/>
+      <c r="CE10" s="13" t="str">
         <f>BY13</f>
         <v>チーム3</v>
       </c>
-      <c r="CF10" s="11">
+      <c r="CF10" s="17">
         <f>CA10</f>
         <v>44825</v>
       </c>
-      <c r="CG10" s="11">
+      <c r="CG10" s="17">
         <f t="shared" ref="CG10" si="22">CF10</f>
         <v>44825</v>
       </c>
-      <c r="CH10" s="11"/>
-      <c r="CI10" s="11"/>
-      <c r="CJ10" s="24"/>
-      <c r="CK10" s="23"/>
-      <c r="CM10" s="17" t="str">
+      <c r="CH10" s="17"/>
+      <c r="CI10" s="17"/>
+      <c r="CJ10" s="31"/>
+      <c r="CK10" s="30"/>
+      <c r="CM10" s="24" t="str">
         <f t="shared" ref="CM10" si="23">BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CN10" s="18">
+      <c r="CN10" s="25">
         <f>CF10</f>
         <v>44825</v>
       </c>
-      <c r="CO10" s="18">
+      <c r="CO10" s="25">
         <f>CN10</f>
         <v>44825</v>
       </c>
-      <c r="CP10" s="18"/>
-      <c r="CQ10" s="18"/>
-      <c r="CR10" s="23"/>
-      <c r="CS10" s="7" t="str">
+      <c r="CP10" s="25"/>
+      <c r="CQ10" s="25"/>
+      <c r="CR10" s="30"/>
+      <c r="CS10" s="13" t="str">
         <f t="shared" ref="CS10" si="24">CM10</f>
         <v>チーム2</v>
       </c>
-      <c r="CT10" s="11">
+      <c r="CT10" s="17">
         <f>CO10</f>
         <v>44825</v>
       </c>
-      <c r="CU10" s="11">
+      <c r="CU10" s="17">
         <f>CT10</f>
         <v>44825</v>
       </c>
-      <c r="CV10" s="11"/>
-      <c r="CW10" s="11"/>
-      <c r="CX10" s="24"/>
-      <c r="CY10" s="24"/>
-      <c r="CZ10" s="24"/>
+      <c r="CV10" s="17"/>
+      <c r="CW10" s="17"/>
+      <c r="CX10" s="31"/>
+      <c r="CY10" s="31"/>
+      <c r="CZ10" s="31"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="2:104">
-      <c r="B11" s="7">
+      <c r="B11" s="13">
         <v>5</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="10" t="str">
+      <c r="C11" s="19"/>
+      <c r="D11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16" t="str">
         <f>定数!D8</f>
         <v>チーム2</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11">
+      <c r="F11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="17">
         <v>44810</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="17">
         <v>44810</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23" t="str">
         <f>F12</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="M11" s="17">
         <v>44811</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="17">
         <v>44811</v>
       </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="T11" s="10">
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="T11" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="U11" s="17">
         <f t="shared" si="1"/>
         <v>44812</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="17">
         <f t="shared" si="2"/>
         <v>44812</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="16">
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="23" t="str">
         <f>T12</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="AA11" s="17">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AB11" s="17">
         <f t="shared" si="4"/>
         <v>44813</v>
       </c>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AH11" s="10">
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AH11" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="AI11" s="17">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11" s="17">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="16">
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="23" t="str">
         <f>AH12</f>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="AO11" s="17">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="AP11" s="11">
+      <c r="AP11" s="17">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AV11" s="10">
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AV11" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW11" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="AW11" s="17">
         <f t="shared" si="11"/>
         <v>44818</v>
       </c>
-      <c r="AX11" s="11">
+      <c r="AX11" s="17">
         <f t="shared" si="12"/>
         <v>44818</v>
       </c>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="16">
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="23" t="str">
         <f>AV12</f>
-        <v>0</v>
-      </c>
-      <c r="BC11" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="BC11" s="17">
         <f t="shared" si="13"/>
         <v>44819</v>
       </c>
-      <c r="BD11" s="11">
+      <c r="BD11" s="17">
         <f t="shared" si="14"/>
         <v>44819</v>
       </c>
-      <c r="BE11" s="11"/>
-      <c r="BF11" s="11"/>
-      <c r="BG11" s="15"/>
-      <c r="BH11" s="15"/>
-      <c r="BJ11" s="10">
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="22"/>
+      <c r="BH11" s="22"/>
+      <c r="BJ11" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BK11" s="11">
+        <v>孫静孺</v>
+      </c>
+      <c r="BK11" s="17">
         <f t="shared" si="16"/>
         <v>44820</v>
       </c>
-      <c r="BL11" s="11">
+      <c r="BL11" s="17">
         <f t="shared" si="17"/>
         <v>44820</v>
       </c>
-      <c r="BM11" s="11"/>
-      <c r="BN11" s="11"/>
-      <c r="BO11" s="15"/>
-      <c r="BP11" s="16">
+      <c r="BM11" s="17"/>
+      <c r="BN11" s="17"/>
+      <c r="BO11" s="22"/>
+      <c r="BP11" s="23" t="str">
         <f>BJ12</f>
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="BQ11" s="17">
         <f t="shared" si="18"/>
         <v>44824</v>
       </c>
-      <c r="BR11" s="11">
+      <c r="BR11" s="17">
         <f t="shared" si="19"/>
         <v>44824</v>
       </c>
-      <c r="BS11" s="11"/>
-      <c r="BT11" s="11"/>
-      <c r="BU11" s="15"/>
-      <c r="BV11" s="15"/>
-      <c r="BW11" s="15"/>
-      <c r="BY11" s="19"/>
-      <c r="BZ11" s="20"/>
-      <c r="CA11" s="20"/>
-      <c r="CB11" s="20"/>
-      <c r="CC11" s="20"/>
-      <c r="CD11" s="25"/>
-      <c r="CE11" s="7"/>
-      <c r="CF11" s="11"/>
-      <c r="CG11" s="11"/>
-      <c r="CH11" s="11"/>
-      <c r="CI11" s="11"/>
-      <c r="CJ11" s="24"/>
-      <c r="CK11" s="25"/>
-      <c r="CM11" s="19"/>
-      <c r="CN11" s="20"/>
-      <c r="CO11" s="20"/>
-      <c r="CP11" s="20"/>
-      <c r="CQ11" s="20"/>
-      <c r="CR11" s="25"/>
-      <c r="CS11" s="7"/>
-      <c r="CT11" s="11"/>
-      <c r="CU11" s="11"/>
-      <c r="CV11" s="11"/>
-      <c r="CW11" s="11"/>
-      <c r="CX11" s="24"/>
-      <c r="CY11" s="24"/>
-      <c r="CZ11" s="24"/>
+      <c r="BS11" s="17"/>
+      <c r="BT11" s="17"/>
+      <c r="BU11" s="22"/>
+      <c r="BV11" s="22"/>
+      <c r="BW11" s="22"/>
+      <c r="BY11" s="26"/>
+      <c r="BZ11" s="27"/>
+      <c r="CA11" s="27"/>
+      <c r="CB11" s="27"/>
+      <c r="CC11" s="27"/>
+      <c r="CD11" s="32"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="17"/>
+      <c r="CG11" s="17"/>
+      <c r="CH11" s="17"/>
+      <c r="CI11" s="17"/>
+      <c r="CJ11" s="31"/>
+      <c r="CK11" s="32"/>
+      <c r="CM11" s="26"/>
+      <c r="CN11" s="27"/>
+      <c r="CO11" s="27"/>
+      <c r="CP11" s="27"/>
+      <c r="CQ11" s="27"/>
+      <c r="CR11" s="32"/>
+      <c r="CS11" s="13"/>
+      <c r="CT11" s="17"/>
+      <c r="CU11" s="17"/>
+      <c r="CV11" s="17"/>
+      <c r="CW11" s="17"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="31"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="2:104">
-      <c r="B12" s="7">
+      <c r="B12" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="10" t="str">
+      <c r="C12" s="19"/>
+      <c r="D12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16" t="str">
         <f>定数!D8</f>
         <v>チーム2</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="17">
         <v>44810</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="17">
         <v>44810</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23" t="str">
         <f>F10</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="M12" s="17">
         <v>44811</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="17">
         <v>44811</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="T12" s="10">
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="T12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="U12" s="17">
         <f t="shared" si="1"/>
         <v>44812</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="17">
         <f t="shared" si="2"/>
         <v>44812</v>
       </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="16">
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="23" t="str">
         <f>T10</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="AA12" s="17">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="17">
         <f t="shared" si="4"/>
         <v>44813</v>
       </c>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AH12" s="10">
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AH12" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="AI12" s="17">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="AJ12" s="11">
+      <c r="AJ12" s="17">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="16">
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="23" t="str">
         <f>AH10</f>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="AO12" s="17">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="AP12" s="11">
+      <c r="AP12" s="17">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AV12" s="10">
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AV12" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW12" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="AW12" s="17">
         <f t="shared" si="11"/>
         <v>44818</v>
       </c>
-      <c r="AX12" s="11">
+      <c r="AX12" s="17">
         <f t="shared" si="12"/>
         <v>44818</v>
       </c>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="16">
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="23" t="str">
         <f>AV10</f>
-        <v>0</v>
-      </c>
-      <c r="BC12" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="BC12" s="17">
         <f t="shared" si="13"/>
         <v>44819</v>
       </c>
-      <c r="BD12" s="11">
+      <c r="BD12" s="17">
         <f t="shared" si="14"/>
         <v>44819</v>
       </c>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="15"/>
-      <c r="BJ12" s="10">
+      <c r="BE12" s="17"/>
+      <c r="BF12" s="17"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BJ12" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BK12" s="11">
+        <v>司徒健斌</v>
+      </c>
+      <c r="BK12" s="17">
         <f t="shared" si="16"/>
         <v>44820</v>
       </c>
-      <c r="BL12" s="11">
+      <c r="BL12" s="17">
         <f t="shared" si="17"/>
         <v>44820</v>
       </c>
-      <c r="BM12" s="11"/>
-      <c r="BN12" s="11"/>
-      <c r="BO12" s="15"/>
-      <c r="BP12" s="16">
+      <c r="BM12" s="17"/>
+      <c r="BN12" s="17"/>
+      <c r="BO12" s="22"/>
+      <c r="BP12" s="23" t="str">
         <f>BJ10</f>
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="11">
+        <v>中山　裕司</v>
+      </c>
+      <c r="BQ12" s="17">
         <f t="shared" si="18"/>
         <v>44824</v>
       </c>
-      <c r="BR12" s="11">
+      <c r="BR12" s="17">
         <f t="shared" si="19"/>
         <v>44824</v>
       </c>
-      <c r="BS12" s="11"/>
-      <c r="BT12" s="11"/>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="15"/>
-      <c r="BW12" s="15"/>
-      <c r="BY12" s="21"/>
-      <c r="BZ12" s="22"/>
-      <c r="CA12" s="22"/>
-      <c r="CB12" s="22"/>
-      <c r="CC12" s="22"/>
-      <c r="CD12" s="26"/>
-      <c r="CE12" s="7"/>
-      <c r="CF12" s="11"/>
-      <c r="CG12" s="11"/>
-      <c r="CH12" s="11"/>
-      <c r="CI12" s="11"/>
-      <c r="CJ12" s="24"/>
-      <c r="CK12" s="26"/>
-      <c r="CM12" s="21"/>
-      <c r="CN12" s="22"/>
-      <c r="CO12" s="22"/>
-      <c r="CP12" s="22"/>
-      <c r="CQ12" s="22"/>
-      <c r="CR12" s="26"/>
-      <c r="CS12" s="7"/>
-      <c r="CT12" s="11"/>
-      <c r="CU12" s="11"/>
-      <c r="CV12" s="11"/>
-      <c r="CW12" s="11"/>
-      <c r="CX12" s="24"/>
-      <c r="CY12" s="24"/>
-      <c r="CZ12" s="24"/>
+      <c r="BS12" s="17"/>
+      <c r="BT12" s="17"/>
+      <c r="BU12" s="22"/>
+      <c r="BV12" s="22"/>
+      <c r="BW12" s="22"/>
+      <c r="BY12" s="28"/>
+      <c r="BZ12" s="29"/>
+      <c r="CA12" s="29"/>
+      <c r="CB12" s="29"/>
+      <c r="CC12" s="29"/>
+      <c r="CD12" s="33"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="17"/>
+      <c r="CG12" s="17"/>
+      <c r="CH12" s="17"/>
+      <c r="CI12" s="17"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="33"/>
+      <c r="CM12" s="28"/>
+      <c r="CN12" s="29"/>
+      <c r="CO12" s="29"/>
+      <c r="CP12" s="29"/>
+      <c r="CQ12" s="29"/>
+      <c r="CR12" s="33"/>
+      <c r="CS12" s="13"/>
+      <c r="CT12" s="17"/>
+      <c r="CU12" s="17"/>
+      <c r="CV12" s="17"/>
+      <c r="CW12" s="17"/>
+      <c r="CX12" s="31"/>
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="31"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="2:104">
-      <c r="B13" s="7">
+      <c r="B13" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="16" t="str">
         <f>定数!D11</f>
         <v>チーム3</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11">
+      <c r="F13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="17">
         <v>44810</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="17">
         <v>44810</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23" t="str">
         <f>F14</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="M13" s="17">
         <v>44811</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="17">
         <v>44811</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="T13" s="10">
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="T13" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="U13" s="17">
         <f t="shared" si="1"/>
         <v>44812</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="17">
         <f t="shared" si="2"/>
         <v>44812</v>
       </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="16">
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="23" t="str">
         <f>T14</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="AA13" s="17">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13" s="17">
         <f t="shared" si="4"/>
         <v>44813</v>
       </c>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AH13" s="10">
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AH13" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="AI13" s="17">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AJ13" s="17">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="16">
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="23" t="str">
         <f>AH14</f>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="AO13" s="17">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="AP13" s="11">
+      <c r="AP13" s="17">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AV13" s="10">
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AV13" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW13" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="AW13" s="17">
         <f t="shared" si="11"/>
         <v>44818</v>
       </c>
-      <c r="AX13" s="11">
+      <c r="AX13" s="17">
         <f t="shared" si="12"/>
         <v>44818</v>
       </c>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="16">
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="23" t="str">
         <f>AV14</f>
-        <v>0</v>
-      </c>
-      <c r="BC13" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="BC13" s="17">
         <f t="shared" si="13"/>
         <v>44819</v>
       </c>
-      <c r="BD13" s="11">
+      <c r="BD13" s="17">
         <f t="shared" si="14"/>
         <v>44819</v>
       </c>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BJ13" s="10">
+      <c r="BE13" s="17"/>
+      <c r="BF13" s="17"/>
+      <c r="BG13" s="22"/>
+      <c r="BH13" s="22"/>
+      <c r="BJ13" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BK13" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="BK13" s="17">
         <f t="shared" si="16"/>
         <v>44820</v>
       </c>
-      <c r="BL13" s="11">
+      <c r="BL13" s="17">
         <f t="shared" si="17"/>
         <v>44820</v>
       </c>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="15"/>
-      <c r="BP13" s="16">
+      <c r="BM13" s="17"/>
+      <c r="BN13" s="17"/>
+      <c r="BO13" s="22"/>
+      <c r="BP13" s="23" t="str">
         <f>BJ14</f>
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="BQ13" s="17">
         <f t="shared" si="18"/>
         <v>44824</v>
       </c>
-      <c r="BR13" s="11">
+      <c r="BR13" s="17">
         <f t="shared" si="19"/>
         <v>44824</v>
       </c>
-      <c r="BS13" s="11"/>
-      <c r="BT13" s="11"/>
-      <c r="BU13" s="15"/>
-      <c r="BV13" s="15"/>
-      <c r="BW13" s="15"/>
-      <c r="BY13" s="17" t="str">
+      <c r="BS13" s="17"/>
+      <c r="BT13" s="17"/>
+      <c r="BU13" s="22"/>
+      <c r="BV13" s="22"/>
+      <c r="BW13" s="22"/>
+      <c r="BY13" s="24" t="str">
         <f>E13</f>
         <v>チーム3</v>
       </c>
-      <c r="BZ13" s="18">
+      <c r="BZ13" s="25">
         <f t="shared" ref="BZ13" si="25">BQ13+1</f>
         <v>44825</v>
       </c>
-      <c r="CA13" s="18">
+      <c r="CA13" s="25">
         <f t="shared" ref="CA13" si="26">BZ13</f>
         <v>44825</v>
       </c>
-      <c r="CB13" s="18"/>
-      <c r="CC13" s="18"/>
-      <c r="CD13" s="23"/>
-      <c r="CE13" s="7" t="str">
+      <c r="CB13" s="25"/>
+      <c r="CC13" s="25"/>
+      <c r="CD13" s="30"/>
+      <c r="CE13" s="13" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CF13" s="11">
+      <c r="CF13" s="17">
         <f>CA13</f>
         <v>44825</v>
       </c>
-      <c r="CG13" s="11">
+      <c r="CG13" s="17">
         <f t="shared" ref="CG13" si="27">CF13</f>
         <v>44825</v>
       </c>
-      <c r="CH13" s="11"/>
-      <c r="CI13" s="11"/>
-      <c r="CJ13" s="24"/>
-      <c r="CK13" s="23"/>
-      <c r="CM13" s="17" t="str">
+      <c r="CH13" s="17"/>
+      <c r="CI13" s="17"/>
+      <c r="CJ13" s="31"/>
+      <c r="CK13" s="30"/>
+      <c r="CM13" s="24" t="str">
         <f t="shared" ref="CM13" si="28">BY13</f>
         <v>チーム3</v>
       </c>
-      <c r="CN13" s="18">
+      <c r="CN13" s="25">
         <f>CF13</f>
         <v>44825</v>
       </c>
-      <c r="CO13" s="18">
+      <c r="CO13" s="25">
         <f>CN13</f>
         <v>44825</v>
       </c>
-      <c r="CP13" s="18"/>
-      <c r="CQ13" s="18"/>
-      <c r="CR13" s="23"/>
-      <c r="CS13" s="7" t="str">
+      <c r="CP13" s="25"/>
+      <c r="CQ13" s="25"/>
+      <c r="CR13" s="30"/>
+      <c r="CS13" s="13" t="str">
         <f t="shared" ref="CS13" si="29">CM13</f>
         <v>チーム3</v>
       </c>
-      <c r="CT13" s="11">
+      <c r="CT13" s="17">
         <f>CO13</f>
         <v>44825</v>
       </c>
-      <c r="CU13" s="11">
+      <c r="CU13" s="17">
         <f>CT13</f>
         <v>44825</v>
       </c>
-      <c r="CV13" s="11"/>
-      <c r="CW13" s="11"/>
-      <c r="CX13" s="24"/>
-      <c r="CY13" s="24"/>
-      <c r="CZ13" s="24"/>
+      <c r="CV13" s="17"/>
+      <c r="CW13" s="17"/>
+      <c r="CX13" s="31"/>
+      <c r="CY13" s="31"/>
+      <c r="CZ13" s="31"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="2:104">
-      <c r="B14" s="7">
+      <c r="B14" s="13">
         <v>8</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="10" t="str">
+      <c r="C14" s="19"/>
+      <c r="D14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="16" t="str">
         <f>定数!D11</f>
         <v>チーム3</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11">
+      <c r="F14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="17">
         <v>44810</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="17">
         <v>44810</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="11">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23" t="str">
+        <f>F15</f>
+        <v>趙小萱</v>
+      </c>
+      <c r="M14" s="17">
         <v>44811</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="17">
         <v>44811</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="T14" s="10">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="T14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="U14" s="17">
         <f t="shared" si="1"/>
         <v>44812</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="17">
         <f t="shared" si="2"/>
         <v>44812</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="16">
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="23" t="str">
         <f>T15</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="AA14" s="17">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AB14" s="17">
         <f t="shared" si="4"/>
         <v>44813</v>
       </c>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AH14" s="10">
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AH14" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="AI14" s="17">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AJ14" s="17">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="16">
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="23" t="str">
         <f>AH15</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="AO14" s="17">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="AP14" s="11">
+      <c r="AP14" s="17">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="AQ14" s="11"/>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AV14" s="10">
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AV14" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW14" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="AW14" s="17">
         <f t="shared" si="11"/>
         <v>44818</v>
       </c>
-      <c r="AX14" s="11">
+      <c r="AX14" s="17">
         <f t="shared" si="12"/>
         <v>44818</v>
       </c>
-      <c r="AY14" s="11"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="16">
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="23" t="str">
         <f>AV15</f>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="BC14" s="17">
         <f t="shared" si="13"/>
         <v>44819</v>
       </c>
-      <c r="BD14" s="11">
+      <c r="BD14" s="17">
         <f t="shared" si="14"/>
         <v>44819</v>
       </c>
-      <c r="BE14" s="11"/>
-      <c r="BF14" s="11"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BJ14" s="10">
+      <c r="BE14" s="17"/>
+      <c r="BF14" s="17"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="22"/>
+      <c r="BJ14" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BK14" s="11">
+        <v>白宝帥</v>
+      </c>
+      <c r="BK14" s="17">
         <f t="shared" si="16"/>
         <v>44820</v>
       </c>
-      <c r="BL14" s="11">
+      <c r="BL14" s="17">
         <f t="shared" si="17"/>
         <v>44820</v>
       </c>
-      <c r="BM14" s="11"/>
-      <c r="BN14" s="11"/>
-      <c r="BO14" s="15"/>
-      <c r="BP14" s="16">
+      <c r="BM14" s="17"/>
+      <c r="BN14" s="17"/>
+      <c r="BO14" s="22"/>
+      <c r="BP14" s="23" t="str">
         <f>BJ15</f>
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="BQ14" s="17">
         <f t="shared" si="18"/>
         <v>44824</v>
       </c>
-      <c r="BR14" s="11">
+      <c r="BR14" s="17">
         <f t="shared" si="19"/>
         <v>44824</v>
       </c>
-      <c r="BS14" s="11"/>
-      <c r="BT14" s="11"/>
-      <c r="BU14" s="15"/>
-      <c r="BV14" s="15"/>
-      <c r="BW14" s="15"/>
-      <c r="BY14" s="19"/>
-      <c r="BZ14" s="20"/>
-      <c r="CA14" s="20"/>
-      <c r="CB14" s="20"/>
-      <c r="CC14" s="20"/>
-      <c r="CD14" s="25"/>
-      <c r="CE14" s="7"/>
-      <c r="CF14" s="11"/>
-      <c r="CG14" s="11"/>
-      <c r="CH14" s="11"/>
-      <c r="CI14" s="11"/>
-      <c r="CJ14" s="24"/>
-      <c r="CK14" s="25"/>
-      <c r="CM14" s="19"/>
-      <c r="CN14" s="20"/>
-      <c r="CO14" s="20"/>
-      <c r="CP14" s="20"/>
-      <c r="CQ14" s="20"/>
-      <c r="CR14" s="25"/>
-      <c r="CS14" s="7"/>
-      <c r="CT14" s="11"/>
-      <c r="CU14" s="11"/>
-      <c r="CV14" s="11"/>
-      <c r="CW14" s="11"/>
-      <c r="CX14" s="24"/>
-      <c r="CY14" s="24"/>
-      <c r="CZ14" s="24"/>
+      <c r="BS14" s="17"/>
+      <c r="BT14" s="17"/>
+      <c r="BU14" s="22"/>
+      <c r="BV14" s="22"/>
+      <c r="BW14" s="22"/>
+      <c r="BY14" s="26"/>
+      <c r="BZ14" s="27"/>
+      <c r="CA14" s="27"/>
+      <c r="CB14" s="27"/>
+      <c r="CC14" s="27"/>
+      <c r="CD14" s="32"/>
+      <c r="CE14" s="13"/>
+      <c r="CF14" s="17"/>
+      <c r="CG14" s="17"/>
+      <c r="CH14" s="17"/>
+      <c r="CI14" s="17"/>
+      <c r="CJ14" s="31"/>
+      <c r="CK14" s="32"/>
+      <c r="CM14" s="26"/>
+      <c r="CN14" s="27"/>
+      <c r="CO14" s="27"/>
+      <c r="CP14" s="27"/>
+      <c r="CQ14" s="27"/>
+      <c r="CR14" s="32"/>
+      <c r="CS14" s="13"/>
+      <c r="CT14" s="17"/>
+      <c r="CU14" s="17"/>
+      <c r="CV14" s="17"/>
+      <c r="CW14" s="17"/>
+      <c r="CX14" s="31"/>
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="31"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="2:104">
-      <c r="B15" s="7">
+      <c r="B15" s="13">
         <v>9</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="10" t="str">
+      <c r="C15" s="19"/>
+      <c r="D15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="16" t="str">
         <f>定数!D11</f>
         <v>チーム3</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11">
+      <c r="F15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="17">
         <v>44810</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="17">
         <v>44810</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23" t="str">
         <f>F13</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="M15" s="17">
         <v>44811</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="17">
         <v>44811</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="T15" s="10">
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="T15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="U15" s="17">
         <f t="shared" si="1"/>
         <v>44812</v>
       </c>
-      <c r="V15" s="11">
-        <f>U15</f>
+      <c r="V15" s="17">
+        <f t="shared" si="2"/>
         <v>44812</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="16">
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="23" t="str">
         <f>T13</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="AA15" s="17">
         <f t="shared" si="3"/>
         <v>44813</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AB15" s="17">
         <f t="shared" si="4"/>
         <v>44813</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AH15" s="10">
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AH15" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="AI15" s="17">
         <f t="shared" si="6"/>
         <v>44816</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AJ15" s="17">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="16">
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="23" t="str">
         <f>AH13</f>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="AO15" s="17">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AP15" s="17">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AV15" s="10">
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="22"/>
+      <c r="AV15" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AW15" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="AW15" s="17">
         <f t="shared" si="11"/>
         <v>44818</v>
       </c>
-      <c r="AX15" s="11">
+      <c r="AX15" s="17">
         <f t="shared" si="12"/>
         <v>44818</v>
       </c>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="16">
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="23" t="str">
         <f>AV13</f>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="BC15" s="17">
         <f t="shared" si="13"/>
         <v>44819</v>
       </c>
-      <c r="BD15" s="11">
+      <c r="BD15" s="17">
         <f t="shared" si="14"/>
         <v>44819</v>
       </c>
-      <c r="BE15" s="11"/>
-      <c r="BF15" s="11"/>
-      <c r="BG15" s="15"/>
-      <c r="BH15" s="15"/>
-      <c r="BJ15" s="10">
+      <c r="BE15" s="17"/>
+      <c r="BF15" s="17"/>
+      <c r="BG15" s="22"/>
+      <c r="BH15" s="22"/>
+      <c r="BJ15" s="16" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="BK15" s="11">
+        <v>趙小萱</v>
+      </c>
+      <c r="BK15" s="17">
         <f t="shared" si="16"/>
         <v>44820</v>
       </c>
-      <c r="BL15" s="11">
+      <c r="BL15" s="17">
         <f t="shared" si="17"/>
         <v>44820</v>
       </c>
-      <c r="BM15" s="11"/>
-      <c r="BN15" s="11"/>
-      <c r="BO15" s="15"/>
-      <c r="BP15" s="16">
+      <c r="BM15" s="17"/>
+      <c r="BN15" s="17"/>
+      <c r="BO15" s="22"/>
+      <c r="BP15" s="23" t="str">
         <f>BJ13</f>
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="11">
+        <v>张晓</v>
+      </c>
+      <c r="BQ15" s="17">
         <f t="shared" si="18"/>
         <v>44824</v>
       </c>
-      <c r="BR15" s="11">
+      <c r="BR15" s="17">
         <f t="shared" si="19"/>
         <v>44824</v>
       </c>
-      <c r="BS15" s="11"/>
-      <c r="BT15" s="11"/>
-      <c r="BU15" s="15"/>
-      <c r="BV15" s="15"/>
-      <c r="BW15" s="15"/>
-      <c r="BY15" s="21"/>
-      <c r="BZ15" s="22"/>
-      <c r="CA15" s="22"/>
-      <c r="CB15" s="22"/>
-      <c r="CC15" s="22"/>
-      <c r="CD15" s="26"/>
-      <c r="CE15" s="7"/>
-      <c r="CF15" s="11"/>
-      <c r="CG15" s="11"/>
-      <c r="CH15" s="11"/>
-      <c r="CI15" s="11"/>
-      <c r="CJ15" s="24"/>
-      <c r="CK15" s="26"/>
-      <c r="CM15" s="21"/>
-      <c r="CN15" s="22"/>
-      <c r="CO15" s="22"/>
-      <c r="CP15" s="22"/>
-      <c r="CQ15" s="22"/>
-      <c r="CR15" s="26"/>
-      <c r="CS15" s="7"/>
-      <c r="CT15" s="11"/>
-      <c r="CU15" s="11"/>
-      <c r="CV15" s="11"/>
-      <c r="CW15" s="11"/>
-      <c r="CX15" s="24"/>
-      <c r="CY15" s="24"/>
-      <c r="CZ15" s="24"/>
+      <c r="BS15" s="17"/>
+      <c r="BT15" s="17"/>
+      <c r="BU15" s="22"/>
+      <c r="BV15" s="22"/>
+      <c r="BW15" s="22"/>
+      <c r="BY15" s="28"/>
+      <c r="BZ15" s="29"/>
+      <c r="CA15" s="29"/>
+      <c r="CB15" s="29"/>
+      <c r="CC15" s="29"/>
+      <c r="CD15" s="33"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="17"/>
+      <c r="CG15" s="17"/>
+      <c r="CH15" s="17"/>
+      <c r="CI15" s="17"/>
+      <c r="CJ15" s="31"/>
+      <c r="CK15" s="33"/>
+      <c r="CM15" s="28"/>
+      <c r="CN15" s="29"/>
+      <c r="CO15" s="29"/>
+      <c r="CP15" s="29"/>
+      <c r="CQ15" s="29"/>
+      <c r="CR15" s="33"/>
+      <c r="CS15" s="13"/>
+      <c r="CT15" s="17"/>
+      <c r="CU15" s="17"/>
+      <c r="CV15" s="17"/>
+      <c r="CW15" s="17"/>
+      <c r="CX15" s="31"/>
+      <c r="CY15" s="31"/>
+      <c r="CZ15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="167">
@@ -4104,33 +4225,120 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D5:E11"/>
+  <dimension ref="D5:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
     <row r="5" spans="4:5">
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
     </row>
-    <row r="8" spans="4:4">
-      <c r="D8" t="s">
-        <v>39</v>
+    <row r="9" spans="4:5">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
-      <c r="D11" t="s">
-        <v>40</v>
+    <row r="10" spans="4:5">
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$H5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>$H6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$H7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$H8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$H9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$H10&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$H11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$H12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H13&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/00_WBS/スケジュール.xlsx
+++ b/00_WBS/スケジュール.xlsx
@@ -123,6 +123,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>陶</t>
     </r>
     <r>
@@ -192,10 +197,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="mm/dd"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -792,28 +797,28 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1370,7 +1375,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4228,7 +4233,7 @@
   <dimension ref="D5:E13"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/00_WBS/スケジュール.xlsx
+++ b/00_WBS/スケジュール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bf4bb4a0a505561/桌面/新しいフォルダー/00_WBS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_E463D8C41BEC3A46EA59EE9A51A56755083882F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{959EED44-A927-45CB-BC95-64A2CB1C0344}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FED28F5-EFDF-754F-B530-AC76CEF244BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -151,6 +153,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>丽丽</t>
@@ -213,13 +216,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm/dd"/>
+    <numFmt numFmtId="176" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -227,15 +230,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -243,22 +251,26 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -279,13 +291,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -438,7 +445,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -452,9 +459,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -470,49 +513,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="53">
     <dxf>
@@ -1163,50 +1170,44 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="DC15" sqref="DC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.69921875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="11" width="6.59765625" style="7" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.59765625" style="7" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="6.59765625" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="4.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="11" width="6.6640625" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.6640625" style="7" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="18" width="6.6640625" style="7" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="2" style="7" customWidth="1"/>
-    <col min="20" max="20" width="6.69921875" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="25" width="6.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="32" width="6.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.69921875" style="7" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="6.69921875" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="46" width="6.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.69921875" style="7" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="6.69921875" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="60" width="6.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.69921875" style="7" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="6.69921875" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="75" width="6.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.69921875" style="7" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="6.69921875" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="89" width="6.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.69921875" style="7" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="6.69921875" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="104" width="6.59765625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.69921875" style="7" customWidth="1" collapsed="1"/>
+    <col min="20" max="25" width="6.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="32" width="6.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="34" max="46" width="6.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="48" max="60" width="6.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="62" max="75" width="6.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="77" max="89" width="6.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="91" max="104" width="6.6640625" style="7" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="105" max="105" width="1.6640625" style="7" customWidth="1" collapsed="1"/>
     <col min="106" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:106" ht="23.4">
+    <row r="3" spans="2:106" ht="24">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:106" ht="14.4">
+    <row r="4" spans="2:106" ht="15">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
@@ -1219,362 +1220,362 @@
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="T4" s="20" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="T4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AH4" s="20" t="s">
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AH4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20" t="s">
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AV4" s="20" t="s">
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AV4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20" t="s">
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BJ4" s="20" t="s">
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BJ4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20" t="s">
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BY4" s="20" t="s">
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38"/>
+      <c r="BY4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20"/>
-      <c r="CE4" s="20" t="s">
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
-      <c r="CJ4" s="20"/>
-      <c r="CK4" s="20"/>
-      <c r="CM4" s="20" t="s">
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
+      <c r="CM4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="CN4" s="20"/>
-      <c r="CO4" s="20"/>
-      <c r="CP4" s="20"/>
-      <c r="CQ4" s="20"/>
-      <c r="CR4" s="20"/>
-      <c r="CS4" s="20" t="s">
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="CT4" s="20"/>
-      <c r="CU4" s="20"/>
-      <c r="CV4" s="20"/>
-      <c r="CW4" s="20"/>
-      <c r="CX4" s="20"/>
-      <c r="CY4" s="20"/>
-      <c r="CZ4" s="20"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38"/>
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
     </row>
-    <row r="5" spans="2:106" ht="14.4">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+    <row r="5" spans="2:106" ht="15">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="26" t="s">
+      <c r="J5" s="38"/>
+      <c r="K5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="26" t="s">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20" t="s">
+      <c r="V5" s="38"/>
+      <c r="W5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="26" t="s">
+      <c r="X5" s="38"/>
+      <c r="Y5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AA5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20" t="s">
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="26" t="s">
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="26" t="s">
+      <c r="AF5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="20" t="s">
+      <c r="AI5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20" t="s">
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="26" t="s">
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="20" t="s">
+      <c r="AO5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20" t="s">
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="26" t="s">
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="26" t="s">
+      <c r="AT5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="20" t="s">
+      <c r="AW5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20" t="s">
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="26" t="s">
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="20" t="s">
+      <c r="BC5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20" t="s">
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="26" t="s">
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="26" t="s">
+      <c r="BH5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="20" t="s">
+      <c r="BK5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="20"/>
-      <c r="BM5" s="20" t="s">
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="20"/>
-      <c r="BO5" s="26" t="s">
+      <c r="BN5" s="38"/>
+      <c r="BO5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="20" t="s">
+      <c r="BQ5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="20"/>
-      <c r="BS5" s="20" t="s">
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="BT5" s="20"/>
-      <c r="BU5" s="26" t="s">
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="26" t="s">
+      <c r="BV5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="26" t="s">
+      <c r="BW5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="20" t="s">
+      <c r="BZ5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="20"/>
-      <c r="CB5" s="20" t="s">
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="20"/>
-      <c r="CD5" s="26" t="s">
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="20" t="s">
+      <c r="CF5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="20"/>
-      <c r="CH5" s="20" t="s">
+      <c r="CG5" s="38"/>
+      <c r="CH5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="20"/>
-      <c r="CJ5" s="26" t="s">
+      <c r="CI5" s="38"/>
+      <c r="CJ5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="26" t="s">
+      <c r="CK5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="20" t="s">
+      <c r="CN5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CO5" s="20"/>
-      <c r="CP5" s="20" t="s">
+      <c r="CO5" s="38"/>
+      <c r="CP5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="20"/>
-      <c r="CR5" s="26" t="s">
+      <c r="CQ5" s="38"/>
+      <c r="CR5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="CT5" s="20" t="s">
+      <c r="CT5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CU5" s="20"/>
-      <c r="CV5" s="20" t="s">
+      <c r="CU5" s="38"/>
+      <c r="CV5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="CW5" s="20"/>
-      <c r="CX5" s="26" t="s">
+      <c r="CW5" s="38"/>
+      <c r="CX5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="26" t="s">
+      <c r="CY5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="26" t="s">
+      <c r="CZ5" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:106" ht="14.4">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+    <row r="6" spans="2:106" ht="15">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="21"/>
       <c r="G6" s="10" t="s">
         <v>26</v>
@@ -1954,76 +1955,76 @@
       <c r="BW7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="BY7" s="27" t="str">
+      <c r="BY7" s="31" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="30">
+      <c r="BZ7" s="25">
         <f>BQ7+1</f>
         <v>44825</v>
       </c>
-      <c r="CA7" s="30">
+      <c r="CA7" s="25">
         <f>BZ7</f>
         <v>44825</v>
       </c>
-      <c r="CB7" s="30"/>
-      <c r="CC7" s="30"/>
-      <c r="CD7" s="33"/>
-      <c r="CE7" s="36" t="str">
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="28"/>
+      <c r="CE7" s="24" t="str">
         <f>BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CF7" s="37">
+      <c r="CF7" s="23">
         <f>CA7</f>
         <v>44825</v>
       </c>
-      <c r="CG7" s="37">
+      <c r="CG7" s="23">
         <f>CF7</f>
         <v>44825</v>
       </c>
-      <c r="CH7" s="37"/>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="38"/>
-      <c r="CK7" s="33"/>
-      <c r="CM7" s="27" t="str">
+      <c r="CH7" s="23"/>
+      <c r="CI7" s="23"/>
+      <c r="CJ7" s="22"/>
+      <c r="CK7" s="28"/>
+      <c r="CM7" s="31" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CN7" s="30">
+      <c r="CN7" s="25">
         <f>CF7</f>
         <v>44825</v>
       </c>
-      <c r="CO7" s="30">
+      <c r="CO7" s="25">
         <f>CN7</f>
         <v>44825</v>
       </c>
-      <c r="CP7" s="30"/>
-      <c r="CQ7" s="30"/>
-      <c r="CR7" s="33"/>
-      <c r="CS7" s="36" t="str">
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="28"/>
+      <c r="CS7" s="24" t="str">
         <f>CM7</f>
         <v>チーム1</v>
       </c>
-      <c r="CT7" s="37">
+      <c r="CT7" s="23">
         <f>CO7</f>
         <v>44825</v>
       </c>
-      <c r="CU7" s="37">
+      <c r="CU7" s="23">
         <f>CT7</f>
         <v>44825</v>
       </c>
-      <c r="CV7" s="37"/>
-      <c r="CW7" s="37"/>
-      <c r="CX7" s="38"/>
-      <c r="CY7" s="38"/>
-      <c r="CZ7" s="38"/>
+      <c r="CV7" s="23"/>
+      <c r="CW7" s="23"/>
+      <c r="CX7" s="22"/>
+      <c r="CY7" s="22"/>
+      <c r="CZ7" s="22"/>
       <c r="DB7" s="19"/>
     </row>
     <row r="8" spans="2:106" ht="18" customHeight="1">
       <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -2190,39 +2191,39 @@
       <c r="BU8" s="17"/>
       <c r="BV8" s="17"/>
       <c r="BW8" s="17"/>
-      <c r="BY8" s="28"/>
-      <c r="BZ8" s="31"/>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="31"/>
-      <c r="CC8" s="31"/>
-      <c r="CD8" s="34"/>
-      <c r="CE8" s="36"/>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37"/>
-      <c r="CI8" s="37"/>
-      <c r="CJ8" s="38"/>
-      <c r="CK8" s="34"/>
-      <c r="CM8" s="28"/>
-      <c r="CN8" s="31"/>
-      <c r="CO8" s="31"/>
-      <c r="CP8" s="31"/>
-      <c r="CQ8" s="31"/>
-      <c r="CR8" s="34"/>
-      <c r="CS8" s="36"/>
-      <c r="CT8" s="37"/>
-      <c r="CU8" s="37"/>
-      <c r="CV8" s="37"/>
-      <c r="CW8" s="37"/>
-      <c r="CX8" s="38"/>
-      <c r="CY8" s="38"/>
-      <c r="CZ8" s="38"/>
+      <c r="BY8" s="32"/>
+      <c r="BZ8" s="26"/>
+      <c r="CA8" s="26"/>
+      <c r="CB8" s="26"/>
+      <c r="CC8" s="26"/>
+      <c r="CD8" s="29"/>
+      <c r="CE8" s="24"/>
+      <c r="CF8" s="23"/>
+      <c r="CG8" s="23"/>
+      <c r="CH8" s="23"/>
+      <c r="CI8" s="23"/>
+      <c r="CJ8" s="22"/>
+      <c r="CK8" s="29"/>
+      <c r="CM8" s="32"/>
+      <c r="CN8" s="26"/>
+      <c r="CO8" s="26"/>
+      <c r="CP8" s="26"/>
+      <c r="CQ8" s="26"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="24"/>
+      <c r="CT8" s="23"/>
+      <c r="CU8" s="23"/>
+      <c r="CV8" s="23"/>
+      <c r="CW8" s="23"/>
+      <c r="CX8" s="22"/>
+      <c r="CY8" s="22"/>
+      <c r="CZ8" s="22"/>
     </row>
     <row r="9" spans="2:106" ht="18" customHeight="1">
       <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
@@ -2387,39 +2388,39 @@
       <c r="BU9" s="17"/>
       <c r="BV9" s="17"/>
       <c r="BW9" s="17"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="32"/>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="35"/>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="37"/>
-      <c r="CG9" s="37"/>
-      <c r="CH9" s="37"/>
-      <c r="CI9" s="37"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="35"/>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="32"/>
-      <c r="CP9" s="32"/>
-      <c r="CQ9" s="32"/>
-      <c r="CR9" s="35"/>
-      <c r="CS9" s="36"/>
-      <c r="CT9" s="37"/>
-      <c r="CU9" s="37"/>
-      <c r="CV9" s="37"/>
-      <c r="CW9" s="37"/>
-      <c r="CX9" s="38"/>
-      <c r="CY9" s="38"/>
-      <c r="CZ9" s="38"/>
+      <c r="BY9" s="33"/>
+      <c r="BZ9" s="27"/>
+      <c r="CA9" s="27"/>
+      <c r="CB9" s="27"/>
+      <c r="CC9" s="27"/>
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23"/>
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="30"/>
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="27"/>
+      <c r="CO9" s="27"/>
+      <c r="CP9" s="27"/>
+      <c r="CQ9" s="27"/>
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="24"/>
+      <c r="CT9" s="23"/>
+      <c r="CU9" s="23"/>
+      <c r="CV9" s="23"/>
+      <c r="CW9" s="23"/>
+      <c r="CX9" s="22"/>
+      <c r="CY9" s="22"/>
+      <c r="CZ9" s="22"/>
     </row>
     <row r="10" spans="2:106" ht="18" customHeight="1">
       <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -2438,9 +2439,15 @@
       <c r="H10" s="15">
         <v>44810</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="17"/>
+      <c r="I10" s="15">
+        <v>44810</v>
+      </c>
+      <c r="J10" s="15">
+        <v>44810</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
       <c r="L10" s="18" t="str">
         <f>F11</f>
         <v>孫静孺</v>
@@ -2580,75 +2587,75 @@
       <c r="BU10" s="17"/>
       <c r="BV10" s="17"/>
       <c r="BW10" s="17"/>
-      <c r="BY10" s="27" t="str">
+      <c r="BY10" s="31" t="str">
         <f>E10</f>
         <v>チーム2</v>
       </c>
-      <c r="BZ10" s="30">
+      <c r="BZ10" s="25">
         <f t="shared" ref="BZ10" si="20">BQ10+1</f>
         <v>44825</v>
       </c>
-      <c r="CA10" s="30">
+      <c r="CA10" s="25">
         <f t="shared" ref="CA10" si="21">BZ10</f>
         <v>44825</v>
       </c>
-      <c r="CB10" s="30"/>
-      <c r="CC10" s="30"/>
-      <c r="CD10" s="33"/>
-      <c r="CE10" s="36" t="str">
+      <c r="CB10" s="25"/>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="28"/>
+      <c r="CE10" s="24" t="str">
         <f>BY13</f>
         <v>チーム3</v>
       </c>
-      <c r="CF10" s="37">
+      <c r="CF10" s="23">
         <f>CA10</f>
         <v>44825</v>
       </c>
-      <c r="CG10" s="37">
+      <c r="CG10" s="23">
         <f t="shared" ref="CG10" si="22">CF10</f>
         <v>44825</v>
       </c>
-      <c r="CH10" s="37"/>
-      <c r="CI10" s="37"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="33"/>
-      <c r="CM10" s="27" t="str">
+      <c r="CH10" s="23"/>
+      <c r="CI10" s="23"/>
+      <c r="CJ10" s="22"/>
+      <c r="CK10" s="28"/>
+      <c r="CM10" s="31" t="str">
         <f t="shared" ref="CM10" si="23">BY10</f>
         <v>チーム2</v>
       </c>
-      <c r="CN10" s="30">
+      <c r="CN10" s="25">
         <f>CF10</f>
         <v>44825</v>
       </c>
-      <c r="CO10" s="30">
+      <c r="CO10" s="25">
         <f>CN10</f>
         <v>44825</v>
       </c>
-      <c r="CP10" s="30"/>
-      <c r="CQ10" s="30"/>
-      <c r="CR10" s="33"/>
-      <c r="CS10" s="36" t="str">
+      <c r="CP10" s="25"/>
+      <c r="CQ10" s="25"/>
+      <c r="CR10" s="28"/>
+      <c r="CS10" s="24" t="str">
         <f t="shared" ref="CS10" si="24">CM10</f>
         <v>チーム2</v>
       </c>
-      <c r="CT10" s="37">
+      <c r="CT10" s="23">
         <f>CO10</f>
         <v>44825</v>
       </c>
-      <c r="CU10" s="37">
+      <c r="CU10" s="23">
         <f>CT10</f>
         <v>44825</v>
       </c>
-      <c r="CV10" s="37"/>
-      <c r="CW10" s="37"/>
-      <c r="CX10" s="38"/>
-      <c r="CY10" s="38"/>
-      <c r="CZ10" s="38"/>
+      <c r="CV10" s="23"/>
+      <c r="CW10" s="23"/>
+      <c r="CX10" s="22"/>
+      <c r="CY10" s="22"/>
+      <c r="CZ10" s="22"/>
     </row>
     <row r="11" spans="2:106" ht="18" customHeight="1">
       <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="13" t="s">
         <v>39</v>
       </c>
@@ -2665,9 +2672,15 @@
       <c r="H11" s="15">
         <v>44810</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="17"/>
+      <c r="I11" s="15">
+        <v>44810</v>
+      </c>
+      <c r="J11" s="15">
+        <v>44810</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1</v>
+      </c>
       <c r="L11" s="18" t="str">
         <f>F12</f>
         <v>司徒健斌</v>
@@ -2807,39 +2820,39 @@
       <c r="BU11" s="17"/>
       <c r="BV11" s="17"/>
       <c r="BW11" s="17"/>
-      <c r="BY11" s="28"/>
-      <c r="BZ11" s="31"/>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="31"/>
-      <c r="CC11" s="31"/>
-      <c r="CD11" s="34"/>
-      <c r="CE11" s="36"/>
-      <c r="CF11" s="37"/>
-      <c r="CG11" s="37"/>
-      <c r="CH11" s="37"/>
-      <c r="CI11" s="37"/>
-      <c r="CJ11" s="38"/>
-      <c r="CK11" s="34"/>
-      <c r="CM11" s="28"/>
-      <c r="CN11" s="31"/>
-      <c r="CO11" s="31"/>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="31"/>
-      <c r="CR11" s="34"/>
-      <c r="CS11" s="36"/>
-      <c r="CT11" s="37"/>
-      <c r="CU11" s="37"/>
-      <c r="CV11" s="37"/>
-      <c r="CW11" s="37"/>
-      <c r="CX11" s="38"/>
-      <c r="CY11" s="38"/>
-      <c r="CZ11" s="38"/>
+      <c r="BY11" s="32"/>
+      <c r="BZ11" s="26"/>
+      <c r="CA11" s="26"/>
+      <c r="CB11" s="26"/>
+      <c r="CC11" s="26"/>
+      <c r="CD11" s="29"/>
+      <c r="CE11" s="24"/>
+      <c r="CF11" s="23"/>
+      <c r="CG11" s="23"/>
+      <c r="CH11" s="23"/>
+      <c r="CI11" s="23"/>
+      <c r="CJ11" s="22"/>
+      <c r="CK11" s="29"/>
+      <c r="CM11" s="32"/>
+      <c r="CN11" s="26"/>
+      <c r="CO11" s="26"/>
+      <c r="CP11" s="26"/>
+      <c r="CQ11" s="26"/>
+      <c r="CR11" s="29"/>
+      <c r="CS11" s="24"/>
+      <c r="CT11" s="23"/>
+      <c r="CU11" s="23"/>
+      <c r="CV11" s="23"/>
+      <c r="CW11" s="23"/>
+      <c r="CX11" s="22"/>
+      <c r="CY11" s="22"/>
+      <c r="CZ11" s="22"/>
     </row>
     <row r="12" spans="2:106" ht="18" customHeight="1">
       <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
@@ -2856,9 +2869,15 @@
       <c r="H12" s="15">
         <v>44810</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="15">
+        <v>44810</v>
+      </c>
+      <c r="J12" s="15">
+        <v>44810</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
       <c r="L12" s="18" t="str">
         <f>F10</f>
         <v>中山　裕司</v>
@@ -2998,39 +3017,39 @@
       <c r="BU12" s="17"/>
       <c r="BV12" s="17"/>
       <c r="BW12" s="17"/>
-      <c r="BY12" s="29"/>
-      <c r="BZ12" s="32"/>
-      <c r="CA12" s="32"/>
-      <c r="CB12" s="32"/>
-      <c r="CC12" s="32"/>
-      <c r="CD12" s="35"/>
-      <c r="CE12" s="36"/>
-      <c r="CF12" s="37"/>
-      <c r="CG12" s="37"/>
-      <c r="CH12" s="37"/>
-      <c r="CI12" s="37"/>
-      <c r="CJ12" s="38"/>
-      <c r="CK12" s="35"/>
-      <c r="CM12" s="29"/>
-      <c r="CN12" s="32"/>
-      <c r="CO12" s="32"/>
-      <c r="CP12" s="32"/>
-      <c r="CQ12" s="32"/>
-      <c r="CR12" s="35"/>
-      <c r="CS12" s="36"/>
-      <c r="CT12" s="37"/>
-      <c r="CU12" s="37"/>
-      <c r="CV12" s="37"/>
-      <c r="CW12" s="37"/>
-      <c r="CX12" s="38"/>
-      <c r="CY12" s="38"/>
-      <c r="CZ12" s="38"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="27"/>
+      <c r="CA12" s="27"/>
+      <c r="CB12" s="27"/>
+      <c r="CC12" s="27"/>
+      <c r="CD12" s="30"/>
+      <c r="CE12" s="24"/>
+      <c r="CF12" s="23"/>
+      <c r="CG12" s="23"/>
+      <c r="CH12" s="23"/>
+      <c r="CI12" s="23"/>
+      <c r="CJ12" s="22"/>
+      <c r="CK12" s="30"/>
+      <c r="CM12" s="33"/>
+      <c r="CN12" s="27"/>
+      <c r="CO12" s="27"/>
+      <c r="CP12" s="27"/>
+      <c r="CQ12" s="27"/>
+      <c r="CR12" s="30"/>
+      <c r="CS12" s="24"/>
+      <c r="CT12" s="23"/>
+      <c r="CU12" s="23"/>
+      <c r="CV12" s="23"/>
+      <c r="CW12" s="23"/>
+      <c r="CX12" s="22"/>
+      <c r="CY12" s="22"/>
+      <c r="CZ12" s="22"/>
     </row>
     <row r="13" spans="2:106" ht="18" customHeight="1">
       <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="37" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -3191,75 +3210,75 @@
       <c r="BU13" s="17"/>
       <c r="BV13" s="17"/>
       <c r="BW13" s="17"/>
-      <c r="BY13" s="27" t="str">
+      <c r="BY13" s="31" t="str">
         <f>E13</f>
         <v>チーム3</v>
       </c>
-      <c r="BZ13" s="30">
+      <c r="BZ13" s="25">
         <f t="shared" ref="BZ13" si="25">BQ13+1</f>
         <v>44825</v>
       </c>
-      <c r="CA13" s="30">
+      <c r="CA13" s="25">
         <f t="shared" ref="CA13" si="26">BZ13</f>
         <v>44825</v>
       </c>
-      <c r="CB13" s="30"/>
-      <c r="CC13" s="30"/>
-      <c r="CD13" s="33"/>
-      <c r="CE13" s="36" t="str">
+      <c r="CB13" s="25"/>
+      <c r="CC13" s="25"/>
+      <c r="CD13" s="28"/>
+      <c r="CE13" s="24" t="str">
         <f>BY7</f>
         <v>チーム1</v>
       </c>
-      <c r="CF13" s="37">
+      <c r="CF13" s="23">
         <f>CA13</f>
         <v>44825</v>
       </c>
-      <c r="CG13" s="37">
+      <c r="CG13" s="23">
         <f t="shared" ref="CG13" si="27">CF13</f>
         <v>44825</v>
       </c>
-      <c r="CH13" s="37"/>
-      <c r="CI13" s="37"/>
-      <c r="CJ13" s="38"/>
-      <c r="CK13" s="33"/>
-      <c r="CM13" s="27" t="str">
+      <c r="CH13" s="23"/>
+      <c r="CI13" s="23"/>
+      <c r="CJ13" s="22"/>
+      <c r="CK13" s="28"/>
+      <c r="CM13" s="31" t="str">
         <f t="shared" ref="CM13" si="28">BY13</f>
         <v>チーム3</v>
       </c>
-      <c r="CN13" s="30">
+      <c r="CN13" s="25">
         <f>CF13</f>
         <v>44825</v>
       </c>
-      <c r="CO13" s="30">
+      <c r="CO13" s="25">
         <f>CN13</f>
         <v>44825</v>
       </c>
-      <c r="CP13" s="30"/>
-      <c r="CQ13" s="30"/>
-      <c r="CR13" s="33"/>
-      <c r="CS13" s="36" t="str">
+      <c r="CP13" s="25"/>
+      <c r="CQ13" s="25"/>
+      <c r="CR13" s="28"/>
+      <c r="CS13" s="24" t="str">
         <f t="shared" ref="CS13" si="29">CM13</f>
         <v>チーム3</v>
       </c>
-      <c r="CT13" s="37">
+      <c r="CT13" s="23">
         <f>CO13</f>
         <v>44825</v>
       </c>
-      <c r="CU13" s="37">
+      <c r="CU13" s="23">
         <f>CT13</f>
         <v>44825</v>
       </c>
-      <c r="CV13" s="37"/>
-      <c r="CW13" s="37"/>
-      <c r="CX13" s="38"/>
-      <c r="CY13" s="38"/>
-      <c r="CZ13" s="38"/>
+      <c r="CV13" s="23"/>
+      <c r="CW13" s="23"/>
+      <c r="CX13" s="22"/>
+      <c r="CY13" s="22"/>
+      <c r="CZ13" s="22"/>
     </row>
     <row r="14" spans="2:106" ht="18" customHeight="1">
       <c r="B14" s="11">
         <v>8</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="13" t="s">
         <v>39</v>
       </c>
@@ -3418,39 +3437,39 @@
       <c r="BU14" s="17"/>
       <c r="BV14" s="17"/>
       <c r="BW14" s="17"/>
-      <c r="BY14" s="28"/>
-      <c r="BZ14" s="31"/>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="31"/>
-      <c r="CC14" s="31"/>
-      <c r="CD14" s="34"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="37"/>
-      <c r="CG14" s="37"/>
-      <c r="CH14" s="37"/>
-      <c r="CI14" s="37"/>
-      <c r="CJ14" s="38"/>
-      <c r="CK14" s="34"/>
-      <c r="CM14" s="28"/>
-      <c r="CN14" s="31"/>
-      <c r="CO14" s="31"/>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="31"/>
-      <c r="CR14" s="34"/>
-      <c r="CS14" s="36"/>
-      <c r="CT14" s="37"/>
-      <c r="CU14" s="37"/>
-      <c r="CV14" s="37"/>
-      <c r="CW14" s="37"/>
-      <c r="CX14" s="38"/>
-      <c r="CY14" s="38"/>
-      <c r="CZ14" s="38"/>
+      <c r="BY14" s="32"/>
+      <c r="BZ14" s="26"/>
+      <c r="CA14" s="26"/>
+      <c r="CB14" s="26"/>
+      <c r="CC14" s="26"/>
+      <c r="CD14" s="29"/>
+      <c r="CE14" s="24"/>
+      <c r="CF14" s="23"/>
+      <c r="CG14" s="23"/>
+      <c r="CH14" s="23"/>
+      <c r="CI14" s="23"/>
+      <c r="CJ14" s="22"/>
+      <c r="CK14" s="29"/>
+      <c r="CM14" s="32"/>
+      <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
+      <c r="CP14" s="26"/>
+      <c r="CQ14" s="26"/>
+      <c r="CR14" s="29"/>
+      <c r="CS14" s="24"/>
+      <c r="CT14" s="23"/>
+      <c r="CU14" s="23"/>
+      <c r="CV14" s="23"/>
+      <c r="CW14" s="23"/>
+      <c r="CX14" s="22"/>
+      <c r="CY14" s="22"/>
+      <c r="CZ14" s="22"/>
     </row>
     <row r="15" spans="2:106" ht="18" customHeight="1">
       <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="13" t="s">
         <v>41</v>
       </c>
@@ -3609,170 +3628,44 @@
       <c r="BU15" s="17"/>
       <c r="BV15" s="17"/>
       <c r="BW15" s="17"/>
-      <c r="BY15" s="29"/>
-      <c r="BZ15" s="32"/>
-      <c r="CA15" s="32"/>
-      <c r="CB15" s="32"/>
-      <c r="CC15" s="32"/>
-      <c r="CD15" s="35"/>
-      <c r="CE15" s="36"/>
-      <c r="CF15" s="37"/>
-      <c r="CG15" s="37"/>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="38"/>
-      <c r="CK15" s="35"/>
-      <c r="CM15" s="29"/>
-      <c r="CN15" s="32"/>
-      <c r="CO15" s="32"/>
-      <c r="CP15" s="32"/>
-      <c r="CQ15" s="32"/>
-      <c r="CR15" s="35"/>
-      <c r="CS15" s="36"/>
-      <c r="CT15" s="37"/>
-      <c r="CU15" s="37"/>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="38"/>
-      <c r="CY15" s="38"/>
-      <c r="CZ15" s="38"/>
+      <c r="BY15" s="33"/>
+      <c r="BZ15" s="27"/>
+      <c r="CA15" s="27"/>
+      <c r="CB15" s="27"/>
+      <c r="CC15" s="27"/>
+      <c r="CD15" s="30"/>
+      <c r="CE15" s="24"/>
+      <c r="CF15" s="23"/>
+      <c r="CG15" s="23"/>
+      <c r="CH15" s="23"/>
+      <c r="CI15" s="23"/>
+      <c r="CJ15" s="22"/>
+      <c r="CK15" s="30"/>
+      <c r="CM15" s="33"/>
+      <c r="CN15" s="27"/>
+      <c r="CO15" s="27"/>
+      <c r="CP15" s="27"/>
+      <c r="CQ15" s="27"/>
+      <c r="CR15" s="30"/>
+      <c r="CS15" s="24"/>
+      <c r="CT15" s="23"/>
+      <c r="CU15" s="23"/>
+      <c r="CV15" s="23"/>
+      <c r="CW15" s="23"/>
+      <c r="CX15" s="22"/>
+      <c r="CY15" s="22"/>
+      <c r="CZ15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CY7:CY9"/>
-    <mergeCell ref="CY10:CY12"/>
-    <mergeCell ref="CY13:CY15"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CZ7:CZ9"/>
-    <mergeCell ref="CZ10:CZ12"/>
-    <mergeCell ref="CZ13:CZ15"/>
-    <mergeCell ref="CV7:CV9"/>
-    <mergeCell ref="CV10:CV12"/>
-    <mergeCell ref="CV13:CV15"/>
-    <mergeCell ref="CW7:CW9"/>
-    <mergeCell ref="CW10:CW12"/>
-    <mergeCell ref="CW13:CW15"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CX7:CX9"/>
-    <mergeCell ref="CX10:CX12"/>
-    <mergeCell ref="CX13:CX15"/>
-    <mergeCell ref="CS7:CS9"/>
-    <mergeCell ref="CS10:CS12"/>
-    <mergeCell ref="CS13:CS15"/>
-    <mergeCell ref="CT7:CT9"/>
-    <mergeCell ref="CT10:CT12"/>
-    <mergeCell ref="CT13:CT15"/>
-    <mergeCell ref="CU7:CU9"/>
-    <mergeCell ref="CU10:CU12"/>
-    <mergeCell ref="CU13:CU15"/>
-    <mergeCell ref="CP7:CP9"/>
-    <mergeCell ref="CP10:CP12"/>
-    <mergeCell ref="CP13:CP15"/>
-    <mergeCell ref="CQ7:CQ9"/>
-    <mergeCell ref="CQ10:CQ12"/>
-    <mergeCell ref="CQ13:CQ15"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR9"/>
-    <mergeCell ref="CR10:CR12"/>
-    <mergeCell ref="CR13:CR15"/>
-    <mergeCell ref="CM7:CM9"/>
-    <mergeCell ref="CM10:CM12"/>
-    <mergeCell ref="CM13:CM15"/>
-    <mergeCell ref="CN7:CN9"/>
-    <mergeCell ref="CN10:CN12"/>
-    <mergeCell ref="CN13:CN15"/>
-    <mergeCell ref="CO7:CO9"/>
-    <mergeCell ref="CO10:CO12"/>
-    <mergeCell ref="CO13:CO15"/>
-    <mergeCell ref="CI7:CI9"/>
-    <mergeCell ref="CI10:CI12"/>
-    <mergeCell ref="CI13:CI15"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CJ7:CJ9"/>
-    <mergeCell ref="CJ10:CJ12"/>
-    <mergeCell ref="CJ13:CJ15"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CK7:CK9"/>
-    <mergeCell ref="CK10:CK12"/>
-    <mergeCell ref="CK13:CK15"/>
-    <mergeCell ref="CF7:CF9"/>
-    <mergeCell ref="CF10:CF12"/>
-    <mergeCell ref="CF13:CF15"/>
-    <mergeCell ref="CG7:CG9"/>
-    <mergeCell ref="CG10:CG12"/>
-    <mergeCell ref="CG13:CG15"/>
-    <mergeCell ref="CH7:CH9"/>
-    <mergeCell ref="CH10:CH12"/>
-    <mergeCell ref="CH13:CH15"/>
-    <mergeCell ref="CC7:CC9"/>
-    <mergeCell ref="CC10:CC12"/>
-    <mergeCell ref="CC13:CC15"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CD7:CD9"/>
-    <mergeCell ref="CD10:CD12"/>
-    <mergeCell ref="CD13:CD15"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CE7:CE9"/>
-    <mergeCell ref="CE10:CE12"/>
-    <mergeCell ref="CE13:CE15"/>
-    <mergeCell ref="BY13:BY15"/>
-    <mergeCell ref="BZ7:BZ9"/>
-    <mergeCell ref="BZ10:BZ12"/>
-    <mergeCell ref="BZ13:BZ15"/>
-    <mergeCell ref="CA7:CA9"/>
-    <mergeCell ref="CA10:CA12"/>
-    <mergeCell ref="CA13:CA15"/>
-    <mergeCell ref="CB7:CB9"/>
-    <mergeCell ref="CB10:CB12"/>
-    <mergeCell ref="CB13:CB15"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BY7:BY9"/>
-    <mergeCell ref="BY10:BY12"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
     <mergeCell ref="BP4:BW4"/>
     <mergeCell ref="BY4:CD4"/>
     <mergeCell ref="CE4:CK4"/>
@@ -3797,17 +3690,143 @@
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="BM5:BN5"/>
     <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BY7:BY9"/>
+    <mergeCell ref="BY10:BY12"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BY13:BY15"/>
+    <mergeCell ref="BZ7:BZ9"/>
+    <mergeCell ref="BZ10:BZ12"/>
+    <mergeCell ref="BZ13:BZ15"/>
+    <mergeCell ref="CA7:CA9"/>
+    <mergeCell ref="CA10:CA12"/>
+    <mergeCell ref="CA13:CA15"/>
+    <mergeCell ref="CB7:CB9"/>
+    <mergeCell ref="CB10:CB12"/>
+    <mergeCell ref="CB13:CB15"/>
+    <mergeCell ref="CC7:CC9"/>
+    <mergeCell ref="CC10:CC12"/>
+    <mergeCell ref="CC13:CC15"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CD7:CD9"/>
+    <mergeCell ref="CD10:CD12"/>
+    <mergeCell ref="CD13:CD15"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CE7:CE9"/>
+    <mergeCell ref="CE10:CE12"/>
+    <mergeCell ref="CE13:CE15"/>
+    <mergeCell ref="CF7:CF9"/>
+    <mergeCell ref="CF10:CF12"/>
+    <mergeCell ref="CF13:CF15"/>
+    <mergeCell ref="CG7:CG9"/>
+    <mergeCell ref="CG10:CG12"/>
+    <mergeCell ref="CG13:CG15"/>
+    <mergeCell ref="CH7:CH9"/>
+    <mergeCell ref="CH10:CH12"/>
+    <mergeCell ref="CH13:CH15"/>
+    <mergeCell ref="CI7:CI9"/>
+    <mergeCell ref="CI10:CI12"/>
+    <mergeCell ref="CI13:CI15"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CJ7:CJ9"/>
+    <mergeCell ref="CJ10:CJ12"/>
+    <mergeCell ref="CJ13:CJ15"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CK7:CK9"/>
+    <mergeCell ref="CK10:CK12"/>
+    <mergeCell ref="CK13:CK15"/>
+    <mergeCell ref="CM7:CM9"/>
+    <mergeCell ref="CM10:CM12"/>
+    <mergeCell ref="CM13:CM15"/>
+    <mergeCell ref="CN7:CN9"/>
+    <mergeCell ref="CN10:CN12"/>
+    <mergeCell ref="CN13:CN15"/>
+    <mergeCell ref="CO7:CO9"/>
+    <mergeCell ref="CO10:CO12"/>
+    <mergeCell ref="CO13:CO15"/>
+    <mergeCell ref="CP7:CP9"/>
+    <mergeCell ref="CP10:CP12"/>
+    <mergeCell ref="CP13:CP15"/>
+    <mergeCell ref="CQ7:CQ9"/>
+    <mergeCell ref="CQ10:CQ12"/>
+    <mergeCell ref="CQ13:CQ15"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR9"/>
+    <mergeCell ref="CR10:CR12"/>
+    <mergeCell ref="CR13:CR15"/>
+    <mergeCell ref="CS7:CS9"/>
+    <mergeCell ref="CS10:CS12"/>
+    <mergeCell ref="CS13:CS15"/>
+    <mergeCell ref="CT7:CT9"/>
+    <mergeCell ref="CT10:CT12"/>
+    <mergeCell ref="CT13:CT15"/>
+    <mergeCell ref="CU7:CU9"/>
+    <mergeCell ref="CU10:CU12"/>
+    <mergeCell ref="CU13:CU15"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CY7:CY9"/>
+    <mergeCell ref="CY10:CY12"/>
+    <mergeCell ref="CY13:CY15"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CZ7:CZ9"/>
+    <mergeCell ref="CZ10:CZ12"/>
+    <mergeCell ref="CZ13:CZ15"/>
+    <mergeCell ref="CV7:CV9"/>
+    <mergeCell ref="CV10:CV12"/>
+    <mergeCell ref="CV13:CV15"/>
+    <mergeCell ref="CW7:CW9"/>
+    <mergeCell ref="CW10:CW12"/>
+    <mergeCell ref="CW13:CW15"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CX7:CX9"/>
+    <mergeCell ref="CX10:CX12"/>
+    <mergeCell ref="CX13:CX15"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="L7">
     <cfRule type="expression" dxfId="52" priority="73">
       <formula>$P7&lt;&gt;""</formula>
@@ -3843,17 +3862,17 @@
       <formula>$P9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I9">
+  <conditionalFormatting sqref="I7:I12">
     <cfRule type="expression" dxfId="45" priority="43">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J9">
+  <conditionalFormatting sqref="J7:J12">
     <cfRule type="expression" dxfId="44" priority="42">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K9">
+  <conditionalFormatting sqref="K7:K12">
     <cfRule type="expression" dxfId="43" priority="41">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
@@ -3963,7 +3982,7 @@
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F15 I10:K15 F8:G8 G10 G12 G14">
+  <conditionalFormatting sqref="F9:F15 I13:K15 F8:G8 G10 G12 G14">
     <cfRule type="expression" dxfId="21" priority="74">
       <formula>$J8&lt;&gt;""</formula>
     </cfRule>
@@ -4041,7 +4060,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" s="1" t="s">
@@ -4104,7 +4123,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12"/>
+  <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="E5">
     <cfRule type="expression" dxfId="8" priority="9">
       <formula>$H5&lt;&gt;""</formula>
